--- a/output/StructureDefinition-AMESEncounter.xlsx
+++ b/output/StructureDefinition-AMESEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T14:59:59+08:00</t>
+    <t>2023-07-26T15:22:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-AMESEncounter.xlsx
+++ b/output/StructureDefinition-AMESEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T15:22:22+08:00</t>
+    <t>2023-07-26T15:51:24+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
